--- a/output/predictions__C2mim__CH3SO3__Aluminum_Oxide__Al2O3__50_0_15_0_-.xlsx
+++ b/output/predictions__C2mim__CH3SO3__Aluminum_Oxide__Al2O3__50_0_15_0_-.xlsx
@@ -504,7 +504,7 @@
         <v>0.2108544302</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2097272574901581</v>
+        <v>0.2096655368804932</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         <v>0.211315165</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2097204774618149</v>
+        <v>0.209686815738678</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         <v>0.209587022</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2096810042858124</v>
+        <v>0.209595575928688</v>
       </c>
     </row>
     <row r="5">
@@ -600,7 +600,7 @@
         <v>0.2096427595</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2095229774713516</v>
+        <v>0.2093756347894669</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +632,7 @@
         <v>0.209125419</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2090707272291183</v>
+        <v>0.2090172469615936</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         <v>0.208122048</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2085501700639725</v>
+        <v>0.2086757272481918</v>
       </c>
     </row>
   </sheetData>

--- a/output/predictions__C2mim__CH3SO3__Aluminum_Oxide__Al2O3__50_0_15_0_-.xlsx
+++ b/output/predictions__C2mim__CH3SO3__Aluminum_Oxide__Al2O3__50_0_15_0_-.xlsx
@@ -504,7 +504,7 @@
         <v>0.2108544302</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2096655368804932</v>
+        <v>0.2097192853689194</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         <v>0.211315165</v>
       </c>
       <c r="H3" t="n">
-        <v>0.209686815738678</v>
+        <v>0.2097244709730148</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         <v>0.209587022</v>
       </c>
       <c r="H4" t="n">
-        <v>0.209595575928688</v>
+        <v>0.2097177058458328</v>
       </c>
     </row>
     <row r="5">
@@ -600,7 +600,7 @@
         <v>0.2096427595</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2093756347894669</v>
+        <v>0.2096537202596664</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +632,7 @@
         <v>0.209125419</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2090172469615936</v>
+        <v>0.2090863734483719</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         <v>0.208122048</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2086757272481918</v>
+        <v>0.20836541056633</v>
       </c>
     </row>
   </sheetData>
